--- a/datalin/data/applications.xlsx
+++ b/datalin/data/applications.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -87,16 +87,232 @@
     <t>GLOPPS</t>
   </si>
   <si>
-    <t xml:space="preserve">GLObal Parts Planning System </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports Spare Part Engineering processes where Volvo Group Designed parts are prepared for aftermarket usage. </t>
-  </si>
-  <si>
-    <t>sarija.raj@volvo.com</t>
-  </si>
-  <si>
-    <t>Sarija Raj</t>
+    <t>BALDO</t>
+  </si>
+  <si>
+    <t>CDB</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>CTDI</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>KOLA</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>PROBUILDER</t>
+  </si>
+  <si>
+    <t>UCHP</t>
+  </si>
+  <si>
+    <t>VCD</t>
+  </si>
+  <si>
+    <t>VDB</t>
+  </si>
+  <si>
+    <t>Customer Database</t>
+  </si>
+  <si>
+    <t>CDB is the Master Data Management system for End Customer for Group Trucks and Bus. The CDB system is developed to support MAS/DCL processes. It holds and provides core information such as customer - address, name, phone</t>
+  </si>
+  <si>
+    <t>Support.CDB_CM@volvo.com</t>
+  </si>
+  <si>
+    <t>Ahlborn Bo Martin</t>
+  </si>
+  <si>
+    <t>The Baldo system is the Volvo Group appointed global Identity and Access Management tool for External User authorization in relation to Organizations and Units. For some applications and areas also Internal Users are administrated in Baldo.</t>
+  </si>
+  <si>
+    <t>Baldo</t>
+  </si>
+  <si>
+    <t>catherine.goussi.2@volvo.com</t>
+  </si>
+  <si>
+    <t>Goussi Catherine</t>
+  </si>
+  <si>
+    <t>Central Repair history</t>
+  </si>
+  <si>
+    <t>Creation needed to isolate in YP the costs in the unspecified list</t>
+  </si>
+  <si>
+    <t>Narayana Vasudev</t>
+  </si>
+  <si>
+    <t>vasudev.narayana@volvo.com</t>
+  </si>
+  <si>
+    <t>Central Truck Dealer Information system contains the masterdata for organizations and organization structure for Trucks (Mack, UD, Volvo, Renault), Bus (Volvo), CE (Terex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarge Gilles </t>
+  </si>
+  <si>
+    <t>gilles.sarge@volvo.com</t>
+  </si>
+  <si>
+    <t>DCN Information System</t>
+  </si>
+  <si>
+    <t>The DIS System (DCN Information System) is the main tool for performing activities within the GAP-process (Global Administrative Preparation). It is mainly used as a tool for managing DCNs in the production preparation work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Belle Marc </t>
+  </si>
+  <si>
+    <t>marc.van.belle@volvo.com</t>
+  </si>
+  <si>
+    <t>Main Dealer Mgt tool with many key benefits: total integration of Volvo syst, workshop effective admin, parts and vehicle sales activities. Most of Volvo's dealer-related syst. are integrated within GDS. Handles comm and integration with other DMSs and Volvo</t>
+  </si>
+  <si>
+    <t>Global Dealer System</t>
+  </si>
+  <si>
+    <t>Thoren Per</t>
+  </si>
+  <si>
+    <t>Per.Thoren@volvo.com</t>
+  </si>
+  <si>
+    <t>Supports Spare Part Engineering processes where Volvo Group Designed parts are prepared for aftermarket usage.</t>
+  </si>
+  <si>
+    <t>GLObal Parts Planning System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenius Maria </t>
+  </si>
+  <si>
+    <t>Maria.Stenius@volvo.com</t>
+  </si>
+  <si>
+    <t>KOLA is a Product Data Management system used within Volvo Group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stokke Gerd </t>
+  </si>
+  <si>
+    <t>Gerd.stokke@volvo.com</t>
+  </si>
+  <si>
+    <t>Composite solution (contains LDE and LAT) that provides information services based on logged data. The domain includes both data generated in product ECUs and diagnostics session logs generated by workshop tools (TechTool) during SandR events.</t>
+  </si>
+  <si>
+    <t>Logged Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jensen Ole </t>
+  </si>
+  <si>
+    <t>Ole.Jensen@volvo.com</t>
+  </si>
+  <si>
+    <t>LISA is used to create and maintain Chassis unique Aftermarket spare part information for all brands of Trucks and Volvo Buses within Volvo Group. LISA is also used as authoring and repository for special tool information. Provisioning for dealers to subscribe special tools and orders will be generated based on their subscription.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Manimuthu </t>
+  </si>
+  <si>
+    <t>manimuthu.t@volvo.com</t>
+  </si>
+  <si>
+    <t>PARTS LINQ Plan Material Parts</t>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+  </si>
+  <si>
+    <t>Baranowska-Podgorna Anna</t>
+  </si>
+  <si>
+    <t>anna.baranowska@volvo.com</t>
+  </si>
+  <si>
+    <t>ProBuilder is a back-office sales preparation tool for product and price structure. ProBuilder uses KOLA logic and data from which truck models are built up for different markets in terms of Standard and Optional variants. Variants can be visible or hidde</t>
+  </si>
+  <si>
+    <t>Probuilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appelqvist Pauli </t>
+  </si>
+  <si>
+    <t>pauli.appelqvist@volvo.com</t>
+  </si>
+  <si>
+    <t>Master Finance</t>
+  </si>
+  <si>
+    <t>SAPV_GMF</t>
+  </si>
+  <si>
+    <t>PARTS LINQ SCM</t>
+  </si>
+  <si>
+    <t>Master Finance solution is to used to handle accounting for each legal entity within Volvo Group.Master Finance can be described as one theoretical part, the Accounting Model,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnet Laurent </t>
+  </si>
+  <si>
+    <t>laurent.bonnet@volvo.com</t>
+  </si>
+  <si>
+    <t>Unified Claim Handling Process</t>
+  </si>
+  <si>
+    <t>UCHP is a system tool for handling claims in a unified way in all markets. Apart from claim handling UCHP also are supporting the TMA process (Technical material Handling) and the external Campaign process.</t>
+  </si>
+  <si>
+    <t>Hugonnet Frederic</t>
+  </si>
+  <si>
+    <t>frederic.hugonnet@volvo.com</t>
+  </si>
+  <si>
+    <t>VCD is the Volvo "White Pages" directory where on can find Volvo users' name, phone, email address, postal address, title and more.</t>
+  </si>
+  <si>
+    <t>Volvo Corporate Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Coillie Koenraad </t>
+  </si>
+  <si>
+    <t>koenraad.van.coillie@volvo.com</t>
+  </si>
+  <si>
+    <t>Vehicle Data Base</t>
+  </si>
+  <si>
+    <t>VDB is used to store indiviual partnumbers per vehicle at essambly date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löwerdahl Anna-Karin </t>
+  </si>
+  <si>
+    <t>Anna-Karin.Lowerdahl@volvo.com</t>
   </si>
 </sst>
 </file>
@@ -456,15 +672,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,22 +781,370 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -585,8 +1153,23 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -599,6 +1182,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -611,5 +1195,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>